--- a/HotelManagament.xlsx
+++ b/HotelManagament.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Hotel Managament Studio HMS</t>
   </si>
@@ -194,6 +195,30 @@
   </si>
   <si>
     <t>კომპანიათა მართვა</t>
+  </si>
+  <si>
+    <t>სასტუმრო</t>
+  </si>
+  <si>
+    <t>ჩექ-ინ/ჩექ-აუთ</t>
+  </si>
+  <si>
+    <t>ჯავშანი</t>
+  </si>
+  <si>
+    <t>ოთახი</t>
+  </si>
+  <si>
+    <t>სტუმარი</t>
+  </si>
+  <si>
+    <t>ოთახების კატეგორიები</t>
+  </si>
+  <si>
+    <t>ოთახების დამატება</t>
+  </si>
+  <si>
+    <t>მიმდინარე მდგომარეობა</t>
   </si>
 </sst>
 </file>
@@ -235,10 +260,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -552,583 +577,583 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>6</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>7</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>8</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -1137,44 +1162,127 @@
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B39:H39"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B36:H36"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
     <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>